--- a/Copenhagen_introsim/data/codebook.xlsx
+++ b/Copenhagen_introsim/data/codebook.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ecdc365-my.sharepoint.com/personal/esther_kukielka_ecdc_europa_eu/Documents/Miscelanea at work/R_work/IntroductoryCourse2023/Copenhagen_introsim/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j.schaeffer\Desktop\Gitlab\Copenhagen_IC2023\Copenhagen_introsim\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{16775FA7-72C6-4406-AE0E-8CFC4814E3AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E39DF636-065D-4EDB-9032-886358CC1889}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="60915" yWindow="1170" windowWidth="14790" windowHeight="12465" xr2:uid="{3BAD01B4-7886-4367-9EC6-757D8C0553A6}"/>
+    <workbookView xWindow="60915" yWindow="1170" windowWidth="14790" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="93">
   <si>
     <t>whether people attended the school dinner party and ate a meal there, or not.</t>
   </si>
@@ -176,9 +175,6 @@
     <t>Values</t>
   </si>
   <si>
-    <t>male,female</t>
-  </si>
-  <si>
     <t>number</t>
   </si>
   <si>
@@ -188,13 +184,142 @@
     <t>teacher or student</t>
   </si>
   <si>
-    <t>teacher, student</t>
+    <t>0 = teacher, 1 = student</t>
+  </si>
+  <si>
+    <t>for students, the class they belong to</t>
+  </si>
+  <si>
+    <t>1, 2, 3</t>
+  </si>
+  <si>
+    <t>0 = did not report that symptom ; 1 = reported that symptom</t>
+  </si>
+  <si>
+    <t>reported diarrhoea</t>
+  </si>
+  <si>
+    <t>reported bloody diarrhoea</t>
+  </si>
+  <si>
+    <t>reported vomiting</t>
+  </si>
+  <si>
+    <t>reported abdominal pain</t>
+  </si>
+  <si>
+    <t>reported nausea</t>
+  </si>
+  <si>
+    <t>reported fever</t>
+  </si>
+  <si>
+    <t>reported headache</t>
+  </si>
+  <si>
+    <t>reported joint paint</t>
+  </si>
+  <si>
+    <t>time of the onset date when they started reporting symptoms</t>
+  </si>
+  <si>
+    <t>hours of the day</t>
+  </si>
+  <si>
+    <t>0 = did not attend and eat ; 1 = ate at the school dinner party</t>
+  </si>
+  <si>
+    <t>ate shrimps</t>
+  </si>
+  <si>
+    <t>0 = did not eat food idem ; 1 = ate food item</t>
+  </si>
+  <si>
+    <t>quantity of shrimps eaten</t>
+  </si>
+  <si>
+    <t>0 = none or very little ; 1 = less than one portion ; 2 = one portion ; 3 = more than one portion</t>
+  </si>
+  <si>
+    <t>drank champagne</t>
+  </si>
+  <si>
+    <t>drank beer</t>
+  </si>
+  <si>
+    <t>drank redwine</t>
+  </si>
+  <si>
+    <t>drank whitewine</t>
+  </si>
+  <si>
+    <t>quantity of tuna mousse eaten</t>
+  </si>
+  <si>
+    <t>ate tuna mousse</t>
+  </si>
+  <si>
+    <t>ate green salad</t>
+  </si>
+  <si>
+    <t>quantity of green salad eaten</t>
+  </si>
+  <si>
+    <t>ate roasted veal</t>
+  </si>
+  <si>
+    <t>quantity of roasted veal eaten</t>
+  </si>
+  <si>
+    <t>ate pasta salad with pesto</t>
+  </si>
+  <si>
+    <t>quantity of pasta salad woth pesto eaten</t>
+  </si>
+  <si>
+    <t>ate ruccola salad with beans and tomatoes</t>
+  </si>
+  <si>
+    <t>quantity of ruccola salad with beans and tomatoes eaten</t>
+  </si>
+  <si>
+    <t>ate cold red pepper sauce</t>
+  </si>
+  <si>
+    <t>quantity of cold red pepper sauce eaten</t>
+  </si>
+  <si>
+    <t>ate bread rolls</t>
+  </si>
+  <si>
+    <t>quantity of bread rolls eaten</t>
+  </si>
+  <si>
+    <t>quantity of beer drunk</t>
+  </si>
+  <si>
+    <t>quantity of redwine drunk</t>
+  </si>
+  <si>
+    <t>quantity of champagne drunk</t>
+  </si>
+  <si>
+    <t>quantity of whitewine drunk</t>
+  </si>
+  <si>
+    <t>day of onset of symptoms</t>
+  </si>
+  <si>
+    <t>date with day, month and year</t>
+  </si>
+  <si>
+    <t>male, female</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -232,10 +357,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -549,38 +683,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15B22E7E-F8CC-41F5-AD42-22669F9CAAB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="68.7265625" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.42578125" customWidth="1"/>
+    <col min="3" max="3" width="83.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -588,216 +728,430 @@
         <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
         <v>49</v>
       </c>
-      <c r="C5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B39" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
+      <c r="B41" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" t="s">
+        <v>91</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;K000000 ECDC NORMAL&amp;1#_x000D_</oddHeader>
   </headerFooter>

--- a/Copenhagen_introsim/data/codebook.xlsx
+++ b/Copenhagen_introsim/data/codebook.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j.schaeffer\Desktop\Gitlab\Copenhagen_IC2023\Copenhagen_introsim\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ecdc365-my.sharepoint.com/personal/esther_kukielka_ecdc_europa_eu/Documents/Miscelanea at work/R_work/IntroductoryCourse2023/Copenhagen_introsim/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_DF23370A8E1D283A0172E3E9E763439A928E986D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60915" yWindow="1170" windowWidth="14790" windowHeight="12465"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,17 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -319,7 +309,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -357,18 +347,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -683,22 +669,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.42578125" customWidth="1"/>
-    <col min="3" max="3" width="83.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.453125" customWidth="1"/>
+    <col min="3" max="3" width="83.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
@@ -709,7 +695,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -720,18 +706,18 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -742,7 +728,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -753,7 +739,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -764,106 +750,106 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -874,29 +860,29 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C17" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C18" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -907,7 +893,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -918,7 +904,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -929,7 +915,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -940,7 +926,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -951,7 +937,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -962,7 +948,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -973,7 +959,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -984,7 +970,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -995,7 +981,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1006,7 +992,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1017,7 +1003,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1028,7 +1014,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1039,7 +1025,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1050,7 +1036,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1061,7 +1047,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1072,7 +1058,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1083,7 +1069,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1094,7 +1080,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1105,7 +1091,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1116,7 +1102,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -1127,7 +1113,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -1138,7 +1124,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>40</v>
       </c>
